--- a/assets/dataFiles/Seven Days Tour Packages.xlsx
+++ b/assets/dataFiles/Seven Days Tour Packages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51DDD47-D7BA-474C-AC10-039525B48C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B593EFC-3873-4055-844A-3F3323A4C0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="8" xr2:uid="{6FFD76FA-4796-4F4D-92D2-DB43C358506D}"/>
   </bookViews>
@@ -114,76 +114,236 @@
     <t xml:space="preserve">TRAVELLER A/C </t>
   </si>
   <si>
-    <t>DAY 1 COIMBATORE TO OOTY, OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN
-DAY 2  OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY
-DAY 3  OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING NILGIRI MOUNTAIN RAILWAY, KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, AND PROCEEDING TO KODAIKANAL
-DAY 4  KODAIKAN LOCAL SIGHTSEEING - KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, GUNA CAVE, BRYANT PARK, GREEN VALLEY VIEW, DOLPHIN'S NOSE, SHENBAGANUR MUSEUM, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS
-DAY 5 KODAIKANL TO MUNNAR, &amp; LOCAL SIGHTSEEING - COCHIN ROAD SECTOR LOCAL SIGHTSEEING : IDEAL PARK, POTHAMEDU VIEW POINT, AATHUKADU WATER FALLS, SPICE GARDEN TOUR (ENTRANCE FEE RS 100.00 / HEAD), THEKKADY ROAD SECTOR LOCAL SIGHTSEEING : LOCK HEART VIEW, GAP ROAD VIEW, POWER HOUSE WATER FALLS, ANAYIRANGAL DAM VIEW, AND BACK TO MUNNAR
-DAY 6  MUNNAR LOCAL SIGHTSEEING - ROSE GARDEN, PHOTO POINT, HONEY BEE TREE, ELEPHANT RIDE,  MATTUPETTY DAM &amp; BOATING, FILM SHOOTING POINT, ECHO POINT, TRIBLE VILLAGE VIEW, KUNDALADAM &amp; BOATING, TOP STATION, AND BACK TO MUNNAR
-DAY 7  MUNNAR TO COIMBATORE, ON THE WAY - TEA MESUEM, GREEN VALLEY VIEW, SANDAL WOOD FOREST, RAJAMALAI WILDLIFE SANCTUARY AND PROCEEDING TO COIMBATORE</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;DAY 1&lt;/h3&gt;&lt;p&gt;COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
-DAY 2  OOTY LOCAL SIGHTSEEING, OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. AND BACK TO HOTEL
-DAY 3  OOTY TO COORG, ON THE WAY PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) &amp; PROCEEDING TO COORG. NIGHT STAY IN COORG
-DAY 4  COORG LOCAL SIGHTSEEING - TALAKAVERI, BHAGAMANDALA TEMPLE, RAJA SEAT MUSICAL FOUNTAIN, ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG
-DAY 5  COORG LOCAL SIGHTSEEING - DUBARE ELEPHANT CAMP,  KUSHALNAGAR BUDDHA TEMPLE, TIBETAN MONASTERY, NISARGADHAMA ANS PROCEEDING TO MYSORE. &amp; NIGHT STAY IN MYSORE
-DAY 6  MYSORE LOCAL SIGHTSEEING,MYSORE PALACE, BRINDAVAN GARDEN, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, TIPU SULTAN'S PALACE, SRI RANGA PATNA,  AND PROCEEDING TO BANGALORE
-DAY 7  BANGALORE LOCAL SIGHTSEEING - TIPU'S PALACE, BULL TEMPLE, LALBAGH, VIDHANA SOUDHA (OUTSIDE VIEW), MUSEUM, GAVI GANGADHARESHWARA TEMPLE, VISVESVARAYA TECHNOLOGICAL MUSEUM, &amp; DROPPING AT BANGALORE CITY OR AIRPORT</t>
-  </si>
-  <si>
-    <t>DAY 1 COIMBATORE TO OOTY, OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN
-DAY 2 OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY
-DAY 3 OOTY TO AVALANCHE, TRIBAL MUSEUM, EMERALD LAKE AND BACK TO OOTY 
-DAY 4 OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING NILGIRI MOUNTAIN RAILWAY, KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, AND PROCEEDING TO KODAIKANAL
-DAY 5 KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS
-DAY 6 KODAIKANAL GUNA CAVE, BERIJAM LAKE IS ABOUT 20 - 25 KMS FROM KODAIKANAL INSIDE FOREST AREA, DOLPHIN'S NOSE, BEAR SHOLA FALLS, SHENBAGANUR MUSEUM
-DAY 7 KODAIKANAL TO PALANI TO COIMBATORE</t>
-  </si>
-  <si>
-    <t>DAY 1 BANGALORE PICK UP - LOCAL SIGHTSEEING - TIPU'S PALACE, BULL TEMPLE, LALBAGH, VIDHANA SOUDHA (OUTSIDE VIEW), MUSEUM, GAVI GANGADHARESHWARA TEMPLE, VISVESVARAYA TECHNOLOGICAL MUSEUM, &amp; NIGHT STAY BANGALORE HOTEL
-DAY 2 BANGALORE TO MYSORE - LOCAL SIGHTSEEING MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, SRIRANGAPATNA AND NIGHT STAY IN MYSORE HOTEL
-DAY 3  MYSORE TO OOTY, ON THE WAY OOTY LOCAL SIGHTSEEING - MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) &amp; PROCEEDING TO OOTY
-DAY 4 OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM
-DAY 5 OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING - MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY, KETTI VALLEY VIEW, AND PROCEEDING TO KODAIKANAL
-DAY 6  KODAIKANAL LOCAL SIGHTSEEING KODAIKANALR &amp; LOCAL SIGHTSEEING - PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS, GUNA CAVE,DOLPHIN'S NOSE, BEAR SHOLA FALLS, SHENBAGANUR MUSEUM
-DAY 7 KODAIKANAL TO COIMBATORE / BANGALORE CITY (OR) AIRPORT DROP</t>
-  </si>
-  <si>
-    <t>DAY 1  COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY
-DAY 2  OOTY LOCAL SIGHTSEEING, OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. AND BACK TO HOTEL
-DAY 3  OOTY TO  PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) &amp; BACK TO OOTY
-DAY 4 OOTY TO AVALANCHE, TRIBAL MUSEUM, EMERALD LAKE AND BACK TO OOTY
-DAY 5  OOTY TO MYSORE ONTHE WAY MUDUMALAI WILDLIFE SANTUARY SIGHT SEEING AND PROCEED TO MYSORE. &amp; NIGHT STAY IN MYSORE
-DAY 6  MYSORE LOCAL SIGHTSEEING,MYSORE PALACE, BRINDAVAN GARDEN, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, TIPU SULTAN'S PALACE, SRI RANGA PATNA,  AND NIGHT STAY IN MYSORE OR TO MOVE TO  BANGALORE
-DAY 7  BANGALORE LOCAL SIGHTSEEING - TIPU'S PALACE, BULL TEMPLE, LALBAGH, VIDHANA SOUDHA (OUTSIDE VIEW), MUSEUM, GAVI GANGADHARESHWARA TEMPLE, VISVESVARAYA TECHNOLOGICAL MUSEUM, &amp; DROPPING AT BANGALORE CITY OR AIRPORT</t>
-  </si>
-  <si>
-    <t>DAY 1  COIMBATORE TO OOTY, OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN
-DAY 2  OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY
-DAY 3  OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING NILGIRI MOUNTAIN RAILWAY, KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, AND PROCEEDING TO KODAIKANAL
-DAY 4  KODAIKAN LOCAL SIGHTSEEING - KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, GUNA CAVE, BRYANT PARK, GREEN VALLEY VIEW,DOLPHIN'S NOSE, SHENBAGANUR MUSEUM, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS
-DAY 5  KODAIKANL TO MUNNAR, &amp; LOCAL SIGHTSEEING - COCHIN ROAD SECTOR LOCAL SIGHTSEEING : IDEAL PARK, POTHAMEDU VIEW POINT, AATHUKADU WATER FALLS, SPICE GARDEN TOUR (ENTRANCE FEE RS 100.00 / HEAD), THEKKADY ROAD SECTOR LOCAL SIGHTSEEING : LOCK HEART VIEW, GAP ROAD VIEW, POWER HOUSE WATER FALLS, ANAYIRANGAL DAM VIEW, AND BACK TO MUNNAR
-DAY 6  MUNNAR LOCAL SIGHTSEEING - ROSE GARDEN, PHOTO POINT, HONEY BEE TREE, ELEPHANT RIDE,  MATTUPETTY DAM &amp; BOATING, FILM SHOOTING POINT, ECHO POINT, TRIBLE VILLAGE VIEW, KUNDALADAM &amp; BOATING, TOP STATION, AND BACK TO MUNNAR
-DAY 7  MUNNAR TO COIMBATORE, ON THE WAY - TEA MESUEM, GREEN VALLEY VIEW, SANDAL WOOD FOREST, RAJAMALAI WILDLIFE SANCTUARY AND PROCEEDING TO COIMBATORE</t>
-  </si>
-  <si>
-    <t>DAY 1 COIMBATORE TO OOTY, OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN
-DAY 2  OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY
-DAY 3  OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING NILGIRI MOUNTAIN RAILWAY, KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, AND PROCEEDING TO KODAIKANAL
-DAY 4  KODAIKAN LOCAL SIGHTSEEING - KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, GUNA CAVE, BRYANT PARK, GREEN VALLEY VIEW,DOLPHIN'S NOSE, SHENBAGANUR MUSEUM, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS
-DAY 5  KODAIKANL TO MUNNAR, &amp; LOCAL SIGHTSEEING - COCHIN ROAD SECTOR LOCAL SIGHTSEEING : IDEAL PARK, POTHAMEDU VIEW POINT, AATHUKADU WATER FALLS, SPICE GARDEN TOUR (ENTRANCE FEE RS 100.00 / HEAD), THEKKADY ROAD SECTOR LOCAL SIGHTSEEING : LOCK HEART VIEW, GAP ROAD VIEW, POWER HOUSE WATER FALLS, ANAYIRANGAL DAM VIEW, AND BACK TO MUNNAR
-DAY 6  MUNNAR LOCAL SIGHTSEEING - ROSE GARDEN, PHOTO POINT, HONEY BEE TREE, ELEPHANT RIDE,  MATTUPETTY DAM &amp; BOATING, FILM SHOOTING POINT, ECHO POINT, TRIBLE VILLAGE VIEW, KUNDALADAM &amp; BOATING, TOP STATION, AND BACK TO MUNNAR
-DAY 7 MUNNAR TO SOME LOCAL SHOPPING &amp; PROCEEDING TO COCHIN DROPPING</t>
-  </si>
-  <si>
-    <t>DAY 1 COIMBATORE TO KODAIKANAL, LOCAL SIGHTSEEING  KODAIKANAL LAKE, COAKER'S WALK
-DAY 2 KODAIKANAL LOCAL SIGHTSEEING KODAIKANALR &amp; LOCAL SIGHTSEEING - PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS, GUNA CAVE,DOLPHIN'S NOSE, BEAR SHOLA FALLS, SHENBAGANUR MUSEUM
-DAY 3 KODAIKANAL TO OOTY, ON THE WAY COONOOR LOCAL SIGHTSEEING - MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY, KETTI VALLEY VIEW, AND TO OOTY
-DAY 4 OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM
-DAY 5 OOTY TO MYSORE, ON THE WAY OOTY LOCAL SIGHTSEEING - KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; PROCEEDING TO MYSORE
-DAY 6 MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, SRIRANGAPATNA AND PROCEEDING TO BANGALORE
-DAY 7 BANGALORE LOCAL SIGHTSEEING - TIPU'S PALACE, BULL TEMPLE, LALBAGH, VIDHANA SOUDHA (OUTSIDE VIEW), MUSEUM, GAVI GANGADHARESHWARA TEMPLE, VISVESVARAYA TECHNOLOGICAL MUSEUM, &amp; DROPPING AT BANGALORE CITY OR AIRPORT</t>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO OOTY, OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING NILGIRI MOUNTAIN RAILWAY, KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, AND PROCEEDING TO KODAIKANAL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL LOCAL SIGHTSEEING - KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, GUNA CAVE, BRYANT PARK, GREEN VALLEY VIEW, DOLPHIN'S NOSE, SHENBAGANUR MUSEUM, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL TO MUNNAR, &amp; LOCAL SIGHTSEEING - COCHIN ROAD SECTOR LOCAL SIGHTSEEING : IDEAL PARK, POTHAMEDU VIEW POINT, AATHUKADU WATER FALLS, SPICE GARDEN TOUR (ENTRANCE FEE RS 100.00 / HEAD), THEKKADY ROAD SECTOR LOCAL SIGHTSEEING : LOCK HEART VIEW, GAP ROAD VIEW, POWER HOUSE WATER FALLS, ANAYIRANGAL DAM VIEW, AND BACK TO MUNNAR &lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;MUNNAR LOCAL SIGHTSEEING - ROSE GARDEN, PHOTO POINT, HONEY BEE TREE, ELEPHANT RIDE,  MATTUPETTY DAM &amp; BOATING, FILM SHOOTING POINT, ECHO POINT, TRIBLE VILLAGE VIEW, KUNDALADAM &amp; BOATING, TOP STATION, AND BACK TO MUNNAR&lt;/p&gt;
+&lt;/div&gt;&lt;div&gt;
+&lt;h5&gt;Day 7&lt;/h5&gt;
+&lt;p&gt;MUNNAR TO COIMBATORE, ON THE WAY - TEA MESUEM, GREEN VALLEY VIEW, SANDAL WOOD FOREST, RAJAMALAI WILDLIFE SANCTUARY AND PROCEEDING TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY LOCAL SIGHTSEEING, OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO COORG, ON THE WAY PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) &amp; PROCEEDING TO COORG. NIGHT STAY IN COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING - TALAKAVERI, BHAGAMANDALA TEMPLE, RAJA SEAT MUSICAL FOUNTAIN, ABBEY FALLS, MADIKERI FORT, OMAKARESHWARA TEMPLE, GADDIGE, DUBARE ELEPHANT CAMP, NISARGADHAMA, GOLDEN TEMPLE, NIGHT STAY IN COORG&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;COORG LOCAL SIGHTSEEING - DUBARE ELEPHANT CAMP,  KUSHALNAGAR BUDDHA TEMPLE, TIBETAN MONASTERY, NISARGADHAMA ANS PROCEEDING TO MYSORE. &amp; NIGHT STAY IN MYSORE &lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;MYSORE LOCAL SIGHTSEEING,MYSORE PALACE, BRINDAVAN GARDEN, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, TIPU SULTAN'S PALACE, SRI RANGA PATNA,  AND PROCEEDING TO BANGALORE&lt;/p&gt;
+&lt;/div&gt;&lt;div&gt;
+&lt;h5&gt;Day 7&lt;/h5&gt;
+&lt;p&gt;BANGALORE LOCAL SIGHTSEEING - TIPU'S PALACE, BULL TEMPLE, LALBAGH, VIDHANA SOUDHA (OUTSIDE VIEW), MUSEUM, GAVI GANGADHARESHWARA TEMPLE, VISVESVARAYA TECHNOLOGICAL MUSEUM, &amp; DROPPING AT BANGALORE CITY OR AIRPORT&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO OOTY, OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO AVALANCHE, TRIBAL MUSEUM, EMERALD LAKE AND BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING NILGIRI MOUNTAIN RAILWAY, KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, AND PROCEEDING TO KODAIKANAL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL GUNA CAVE, BERIJAM LAKE IS ABOUT 20 - 25 KMS FROM KODAIKANAL INSIDE FOREST AREA, DOLPHIN'S NOSE, BEAR SHOLA FALLS, SHENBAGANUR MUSEUM&lt;/p&gt;
+&lt;/div&gt;&lt;div&gt;
+&lt;h5&gt;Day 7&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL TO PALANI TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;BANGALORE PICK UP - LOCAL SIGHTSEEING - TIPU'S PALACE, BULL TEMPLE, LALBAGH, VIDHANA SOUDHA (OUTSIDE VIEW), MUSEUM, GAVI GANGADHARESHWARA TEMPLE, VISVESVARAYA TECHNOLOGICAL MUSEUM, &amp; NIGHT STAY BANGALORE HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;BANGALORE TO MYSORE - LOCAL SIGHTSEEING MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, SRIRANGAPATNA AND NIGHT STAY IN MYSORE HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;MYSORE TO OOTY, ON THE WAY OOTY LOCAL SIGHTSEEING - MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) &amp; PROCEEDING TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING - MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY, KETTI VALLEY VIEW, AND PROCEEDING TO KODAIKANAL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL LOCAL SIGHTSEEING KODAIKANAL &amp; LOCAL SIGHTSEEING - PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS, GUNA CAVE,DOLPHIN'S NOSE, BEAR SHOLA FALLS, SHENBAGANUR MUSEUM&lt;/p&gt;
+&lt;/div&gt;&lt;div&gt;
+&lt;h5&gt;Day 7&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL TO COIMBATORE / BANGALORE CITY (OR) AIRPORT DROP&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO COONOOR MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, WAX MUSEUM, KETTI VALLEY VIEW, NILGIRI MOUNTAIN RAILWAY AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY LOCAL SIGHTSEEING, OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN. AND BACK TO HOTEL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO  PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING) &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;OOTY TO AVALANCHE, TRIBAL MUSEUM, EMERALD LAKE AND BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;OOTY TO MYSORE ONTHE WAY MUDUMALAI WILDLIFE SANTUARY SIGHT SEEING AND PROCEED TO MYSORE. &amp; NIGHT STAY IN MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;MYSORE LOCAL SIGHTSEEING,MYSORE PALACE, BRINDAVAN GARDEN, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, RAIL MUSEUM, DATTA PEETHAM, TIPU SULTAN'S PALACE, SRI RANGA PATNA, AND NIGHT STAY IN MYSORE OR TO MOVE TO  BANGALORE&lt;/p&gt;
+&lt;/div&gt;&lt;div&gt;
+&lt;h5&gt;Day 7&lt;/h5&gt;
+&lt;p&gt;BANGALORE LOCAL SIGHTSEEING - TIPU'S PALACE, BULL TEMPLE, LALBAGH, VIDHANA SOUDHA (OUTSIDE VIEW), MUSEUM, GAVI GANGADHARESHWARA TEMPLE, VISVESVARAYA TECHNOLOGICAL MUSEUM, &amp; DROPPING AT BANGALORE CITY OR AIRPORT&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO OOTY, OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING NILGIRI MOUNTAIN RAILWAY, KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, AND PROCEEDING TO KODAIKANAL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL LOCAL SIGHTSEEING - KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, GUNA CAVE, BRYANT PARK, GREEN VALLEY VIEW,DOLPHIN'S NOSE, SHENBAGANUR MUSEUM, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL TO MUNNAR, &amp; LOCAL SIGHTSEEING - COCHIN ROAD SECTOR LOCAL SIGHTSEEING : IDEAL PARK, POTHAMEDU VIEW POINT, AATHUKADU WATER FALLS, SPICE GARDEN TOUR (ENTRANCE FEE RS 100.00 / HEAD), THEKKADY ROAD SECTOR LOCAL SIGHTSEEING : LOCK HEART VIEW, GAP ROAD VIEW, POWER HOUSE WATER FALLS, ANAYIRANGAL DAM VIEW, AND BACK TO MUNNAR&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;MUNNAR LOCAL SIGHTSEEING - ROSE GARDEN, PHOTO POINT, HONEY BEE TREE, ELEPHANT RIDE,  MATTUPETTY DAM &amp; BOATING, FILM SHOOTING POINT, ECHO POINT, TRIBLE VILLAGE VIEW, KUNDALADAM &amp; BOATING, TOP STATION, AND BACK TO MUNNAR&lt;/p&gt;
+&lt;/div&gt;&lt;div&gt;
+&lt;h5&gt;Day 7&lt;/h5&gt;
+&lt;p&gt;MUNNAR TO COIMBATORE, ON THE WAY - TEA MESUEM, GREEN VALLEY VIEW, SANDAL WOOD FOREST, RAJAMALAI WILDLIFE SANCTUARY AND PROCEEDING TO COIMBATORE&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO OOTY, OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;OOTY TO PINE FOREST, KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; BACK TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;OOTY TO KODAIKANAL, ON THE WAY COONOOR LOCAL SIGHTSEEING NILGIRI MOUNTAIN RAILWAY, KETTI VALLEY VIEW, MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, AND PROCEEDING TO KODAIKANAL&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL LOCAL SIGHTSEEING - KODAIKANAL LAKE, COAKER'S WALK, PILLAR ROCKS, GUNA CAVE, BRYANT PARK, GREEN VALLEY VIEW,DOLPHIN'S NOSE, SHENBAGANUR MUSEUM, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL TO MUNNAR, &amp; LOCAL SIGHTSEEING - COCHIN ROAD SECTOR LOCAL SIGHTSEEING : IDEAL PARK, POTHAMEDU VIEW POINT, AATHUKADU WATER FALLS, SPICE GARDEN TOUR (ENTRANCE FEE RS 100.00 / HEAD), THEKKADY ROAD SECTOR LOCAL SIGHTSEEING : LOCK HEART VIEW, GAP ROAD VIEW, POWER HOUSE WATER FALLS, ANAYIRANGAL DAM VIEW, AND BACK TO MUNNAR&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;MUNNAR LOCAL SIGHTSEEING - ROSE GARDEN, PHOTO POINT, HONEY BEE TREE, ELEPHANT RIDE,  MATTUPETTY DAM &amp; BOATING, FILM SHOOTING POINT, ECHO POINT, TRIBLE VILLAGE VIEW, KUNDALADAM &amp; BOATING, TOP STATION, AND BACK TO MUNNAR&lt;/p&gt;
+&lt;/div&gt;&lt;div&gt;
+&lt;h5&gt;Day 7&lt;/h5&gt;
+&lt;p&gt;MUNNAR TO SOME LOCAL SHOPPING &amp; PROCEEDING TO COCHIN DROPPING&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Day 1&lt;/h5&gt;
+&lt;p&gt;COIMBATORE TO KODAIKANAL, LOCAL SIGHTSEEING  KODAIKANAL LAKE, COAKER'S WALK&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 2&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL LOCAL SIGHTSEEING KODAIKANALR &amp; LOCAL SIGHTSEEING - PILLAR ROCKS, BRYANT PARK, GREEN VALLEY VIEW, KURINJI ANDAVAR TEMPLE, SILVER CASCADE FALLS, GUNA CAVE,DOLPHIN'S NOSE, BEAR SHOLA FALLS, SHENBAGANUR MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 3&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL TO OOTY, ON THE WAY COONOOR LOCAL SIGHTSEEING - MRC MILITARY CAMP (OUTSIDE VIEW), DOLPHIN'S NOSE, LAMB'S ROCK, TEA GARDENS, SIMS PARK, NILGIRI MOUNTAIN RAILWAY, KETTI VALLEY VIEW, AND TO OOTY&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 4&lt;/h5&gt;
+&lt;p&gt;OOTY CENTENARY ROSE GARDEN, LAKE(BOATHOUSE), THREAD GARDEN, CHILDREN PARK, GOVERNMENT MUSEUM, DODABETTA PEAK, TEA FACTORY, BOTANICAL GARDEN, WAX MUSEUM&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 5&lt;/h5&gt;
+&lt;p&gt;OOTY TO MYSORE, ON THE WAY OOTY LOCAL SIGHTSEEING - KAMARAJAR DAM, 6TH MILE, 9TH MILE CINE SHOOTING POINT, TODA SETTLEMENTS (TRIBAL VILLAGE), GOLF COURSE, PYKARA FALLS, PYKARA LAKE (BOATING), MUDUMALAI WILD LIFE SANCTUARY SIGHTSEEING &amp; PROCEEDING TO MYSORE&lt;/p&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h5&gt;Day 6&lt;/h5&gt;
+&lt;p&gt;MYSORE PALACE, BRINDAVAN GARDENS, CHAMUNDI HILLS, MYSORE ZOO, LALITA MAHAL PALACE, SRIRANGAPATNA AND PROCEEDING TO BANGALORE&lt;/p&gt;
+&lt;/div&gt;&lt;div&gt;
+&lt;h5&gt;Day 7&lt;/h5&gt;
+&lt;p&gt;BANGALORE LOCAL SIGHTSEEING - TIPU'S PALACE, BULL TEMPLE, LALBAGH, VIDHANA SOUDHA (OUTSIDE VIEW), MUSEUM, GAVI GANGADHARESHWARA TEMPLE, VISVESVARAYA TECHNOLOGICAL MUSEUM, &amp; DROPPING AT BANGALORE CITY OR AIRPORT&lt;/p&gt;
+&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -374,24 +534,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -423,13 +565,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -439,6 +590,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -822,7 +982,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,144 +994,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>24400</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>24400</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>24400</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>31600</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>31600</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>42750</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>44750</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="10">
         <v>46600</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -990,7 +1150,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,144 +1162,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>27850</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>27850</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>27850</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>36450</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>36450</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>48350</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>51550</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="10">
         <v>53650</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1158,7 +1318,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,144 +1330,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>21100</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>21100</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>21100</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>27800</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>27800</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>38200</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>39200</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="10">
         <v>40800</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1325,7 +1485,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,116 +1497,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>31500</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>31500</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>41150</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>43250</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>54550</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="10">
         <v>57000</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1464,7 +1624,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,144 +1636,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>25100</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>25100</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>25100</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>33200</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>33200</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>44350</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>47300</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="10">
         <v>49150</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1631,7 +1791,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,144 +1803,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>24400</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>24400</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>24400</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>31600</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>31600</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>42750</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>44750</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="10">
         <v>46600</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1798,7 +1958,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,144 +1970,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>25500</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>25500</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>25500</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>32900</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>32900</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>44350</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>46200</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="10">
         <v>48150</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1965,7 +2125,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,144 +2137,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="7">
         <v>29000</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="7">
         <v>29000</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>29000</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="7">
         <v>37800</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="7">
         <v>37800</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="7">
         <v>50000</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="7">
         <v>53350</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="10">
         <v>55550</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
     </row>
